--- a/data/trans_dic/P20D2_R_2023-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P20D2_R_2023-Provincia-trans_dic.xlsx
@@ -597,10 +597,10 @@
       </c>
       <c r="C6" s="5" t="inlineStr"/>
       <c r="D6" s="5" t="n">
-        <v>0.838056149116875</v>
+        <v>0.8361852205286566</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.5978987225641453</v>
+        <v>0.6242700420310423</v>
       </c>
     </row>
     <row r="7">
@@ -615,13 +615,13 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>0.7572611747145421</v>
+        <v>0.7572611747145424</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.5736287721019355</v>
+        <v>0.5736287721019356</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.7055425832264614</v>
+        <v>0.7055425832264611</v>
       </c>
     </row>
     <row r="8">
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.4851875363063884</v>
+        <v>0.4807514413008617</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.2694161326691336</v>
+        <v>0.2457514594926855</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.4719514922980721</v>
+        <v>0.4681605912969322</v>
       </c>
     </row>
     <row r="9">
@@ -649,13 +649,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.9345749839917837</v>
+        <v>0.9290331710679944</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.8733697250382298</v>
+        <v>0.8582274329196198</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.8694674344002383</v>
+        <v>0.8780977057675807</v>
       </c>
     </row>
     <row r="10">
@@ -676,7 +676,7 @@
         <v>0.1600618194326497</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.5927882495451355</v>
+        <v>0.5927882495451353</v>
       </c>
     </row>
     <row r="11">
@@ -687,13 +687,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.5517971354576897</v>
+        <v>0.6077393759740511</v>
       </c>
       <c r="D11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.3742251814208373</v>
+        <v>0.3987245136748385</v>
       </c>
     </row>
     <row r="12">
@@ -707,10 +707,10 @@
         <v>1</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.4835750601196329</v>
+        <v>0.4220600452727016</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.7815650757637511</v>
+        <v>0.7749866758657484</v>
       </c>
     </row>
     <row r="13">
@@ -728,7 +728,7 @@
         <v>0.8001214973556149</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.4812332463722377</v>
+        <v>0.4812332463722376</v>
       </c>
       <c r="E13" s="5" t="n">
         <v>0.6355921100490369</v>
@@ -742,13 +742,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.4342151233421237</v>
+        <v>0.46614977859074</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1590884752113547</v>
+        <v>0.1491314723866601</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.3897756864084422</v>
+        <v>0.3993540901383453</v>
       </c>
     </row>
     <row r="15">
@@ -762,10 +762,10 @@
         <v>1</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.8686019604935792</v>
+        <v>0.8576422383920806</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.8299890826427785</v>
+        <v>0.8227794874307066</v>
       </c>
     </row>
     <row r="16">
@@ -786,7 +786,7 @@
         <v>0.3212819483973207</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.6409350116332875</v>
+        <v>0.6409350116332876</v>
       </c>
     </row>
     <row r="17">
@@ -797,13 +797,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.2906936938079048</v>
+        <v>0</v>
       </c>
       <c r="D17" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1997374687747717</v>
+        <v>0.2080609287274433</v>
       </c>
     </row>
     <row r="18">
@@ -820,7 +820,7 @@
         <v>1</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.911602753989733</v>
+        <v>0.9003631867404626</v>
       </c>
     </row>
     <row r="19">
@@ -841,7 +841,7 @@
         <v>0.5892436315742537</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>0.6479125232240772</v>
+        <v>0.6479125232240776</v>
       </c>
     </row>
     <row r="20">
@@ -852,13 +852,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.3974577762772861</v>
+        <v>0.3417110364314567</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.1485334346632689</v>
+        <v>0.1335925076676444</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.3799810827522994</v>
+        <v>0.3983064673177127</v>
       </c>
     </row>
     <row r="21">
@@ -869,13 +869,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.917850340696013</v>
+        <v>0.9203016671804286</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.9089983313271689</v>
+        <v>0.9168841533038155</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.8326706449225432</v>
+        <v>0.86594103508776</v>
       </c>
     </row>
     <row r="22">
@@ -890,13 +890,13 @@
         </is>
       </c>
       <c r="C22" s="5" t="n">
-        <v>0.5793299842405885</v>
+        <v>0.5793299842405886</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.4116832113562438</v>
+        <v>0.4116832113562439</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.4701229633121564</v>
+        <v>0.4701229633121565</v>
       </c>
     </row>
     <row r="23">
@@ -907,13 +907,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.2760086243798656</v>
+        <v>0.2581297876139442</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.2360876807073599</v>
+        <v>0.2378958881990272</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.3042979000665665</v>
+        <v>0.3162274284779708</v>
       </c>
     </row>
     <row r="24">
@@ -924,13 +924,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.8917923096321705</v>
+        <v>0.8766877162512045</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.5992300795228158</v>
+        <v>0.6049183180616337</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.6480678788431912</v>
+        <v>0.6411542163879909</v>
       </c>
     </row>
     <row r="25">
@@ -945,7 +945,7 @@
         </is>
       </c>
       <c r="C25" s="5" t="n">
-        <v>0.7014547255774515</v>
+        <v>0.7014547255774516</v>
       </c>
       <c r="D25" s="5" t="n">
         <v>0.277881335613401</v>
@@ -962,13 +962,13 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.3677582390885387</v>
+        <v>0.3650688174252336</v>
       </c>
       <c r="D26" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.3194245573180274</v>
+        <v>0.3012377950203509</v>
       </c>
     </row>
     <row r="27">
@@ -979,13 +979,13 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.9161646766850386</v>
+        <v>0.9164615361911517</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.7078217773535972</v>
+        <v>0.7115968361280244</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.7638525776479826</v>
+        <v>0.764973167591807</v>
       </c>
     </row>
     <row r="28">
@@ -1000,13 +1000,13 @@
         </is>
       </c>
       <c r="C28" s="5" t="n">
-        <v>0.718098202446821</v>
+        <v>0.7180982024468212</v>
       </c>
       <c r="D28" s="5" t="n">
-        <v>0.4071626104444326</v>
+        <v>0.4071626104444327</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>0.5761559980751885</v>
+        <v>0.5761559980751886</v>
       </c>
     </row>
     <row r="29">
@@ -1017,13 +1017,13 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.5990664494158288</v>
+        <v>0.6105251459813292</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.2862850766175092</v>
+        <v>0.301272290665611</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.4907668834195131</v>
+        <v>0.4911257034750621</v>
       </c>
     </row>
     <row r="30">
@@ -1034,13 +1034,13 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.8077131969672614</v>
+        <v>0.8148163878618275</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.5428713797720214</v>
+        <v>0.5537174241716604</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.6591974493830871</v>
+        <v>0.6591430333921242</v>
       </c>
     </row>
     <row r="31">
@@ -1202,10 +1202,10 @@
       </c>
       <c r="C7" s="6" t="inlineStr"/>
       <c r="D7" s="6" t="n">
-        <v>2507</v>
+        <v>2502</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>3070</v>
+        <v>3205</v>
       </c>
     </row>
     <row r="8">
@@ -1254,13 +1254,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>8111</v>
+        <v>8037</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>1766</v>
+        <v>1611</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>10983</v>
+        <v>10895</v>
       </c>
     </row>
     <row r="11">
@@ -1271,13 +1271,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>15623</v>
+        <v>15531</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>5724</v>
+        <v>5625</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>20234</v>
+        <v>20435</v>
       </c>
     </row>
     <row r="12">
@@ -1326,13 +1326,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>5908</v>
+        <v>6506</v>
       </c>
       <c r="D14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>6610</v>
+        <v>7043</v>
       </c>
     </row>
     <row r="15">
@@ -1346,10 +1346,10 @@
         <v>10706</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>3364</v>
+        <v>2936</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>13805</v>
+        <v>13689</v>
       </c>
     </row>
     <row r="16">
@@ -1398,13 +1398,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>4670</v>
+        <v>5013</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>1824</v>
+        <v>1709</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>8660</v>
+        <v>8872</v>
       </c>
     </row>
     <row r="19">
@@ -1418,10 +1418,10 @@
         <v>10754</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>9957</v>
+        <v>9831</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>18440</v>
+        <v>18280</v>
       </c>
     </row>
     <row r="20">
@@ -1470,13 +1470,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>712</v>
+        <v>0</v>
       </c>
       <c r="D22" s="6" t="n">
         <v>0</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>728</v>
+        <v>758</v>
       </c>
     </row>
     <row r="23">
@@ -1493,7 +1493,7 @@
         <v>1195</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>3321</v>
+        <v>3280</v>
       </c>
     </row>
     <row r="24">
@@ -1542,13 +1542,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>2426</v>
+        <v>2085</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>492</v>
+        <v>443</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>3578</v>
+        <v>3750</v>
       </c>
     </row>
     <row r="27">
@@ -1559,13 +1559,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>5602</v>
+        <v>5617</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>3012</v>
+        <v>3038</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>7840</v>
+        <v>8154</v>
       </c>
     </row>
     <row r="28">
@@ -1614,13 +1614,13 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>2951</v>
+        <v>2759</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>4716</v>
+        <v>4752</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>9332</v>
+        <v>9697</v>
       </c>
     </row>
     <row r="31">
@@ -1631,13 +1631,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>9533</v>
+        <v>9372</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>11970</v>
+        <v>12084</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>19874</v>
+        <v>19662</v>
       </c>
     </row>
     <row r="32">
@@ -1686,13 +1686,13 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>3179</v>
+        <v>3155</v>
       </c>
       <c r="D34" s="6" t="n">
         <v>0</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>4305</v>
+        <v>4060</v>
       </c>
     </row>
     <row r="35">
@@ -1703,13 +1703,13 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>7918</v>
+        <v>7921</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>3422</v>
+        <v>3440</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>10294</v>
+        <v>10310</v>
       </c>
     </row>
     <row r="36">
@@ -1758,13 +1758,13 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>40858</v>
+        <v>41639</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>16400</v>
+        <v>17258</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>61585</v>
+        <v>61630</v>
       </c>
     </row>
     <row r="39">
@@ -1775,13 +1775,13 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>55088</v>
+        <v>55572</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>31098</v>
+        <v>31720</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>82721</v>
+        <v>82714</v>
       </c>
     </row>
     <row r="40">
